--- a/l.xlsx
+++ b/l.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="301">
   <si>
     <t>班级</t>
   </si>
@@ -326,13 +326,13 @@
     <t>3/4</t>
   </si>
   <si>
-    <t>500</t>
+    <t>503</t>
   </si>
   <si>
     <t>387.0</t>
   </si>
   <si>
-    <t>195.0</t>
+    <t>236.0</t>
   </si>
   <si>
     <t>2/4</t>
@@ -413,9 +413,6 @@
     <t>2019-08-21 16:02:25</t>
   </si>
   <si>
-    <t>503</t>
-  </si>
-  <si>
     <t>503.0</t>
   </si>
   <si>
@@ -500,7 +497,7 @@
     <t>18207690779</t>
   </si>
   <si>
-    <t>郑思琪（王雨禾)</t>
+    <t>郑斯琪（王雨禾)</t>
   </si>
   <si>
     <t>13922906022</t>
@@ -891,6 +888,33 @@
   </si>
   <si>
     <t>122.0</t>
+  </si>
+  <si>
+    <t>144115214634906730</t>
+  </si>
+  <si>
+    <t>13862761398</t>
+  </si>
+  <si>
+    <t>张瑞琦</t>
+  </si>
+  <si>
+    <t>2019-10-12 17:25:23</t>
+  </si>
+  <si>
+    <t>144115214716311037</t>
+  </si>
+  <si>
+    <t>183****3183</t>
+  </si>
+  <si>
+    <t>18349323183</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2019-10-12 19:34:57</t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1786,10 @@
         <v>102</v>
       </c>
       <c r="N4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" t="s">
         <v>133</v>
-      </c>
-      <c r="O4" t="s">
-        <v>134</v>
       </c>
       <c r="P4" t="s">
         <v>110</v>
@@ -1774,112 +1798,112 @@
         <v>103</v>
       </c>
       <c r="R4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S4" t="s">
         <v>109</v>
       </c>
       <c r="T4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" t="s">
         <v>136</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>137</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY4" t="s">
         <v>138</v>
-      </c>
-      <c r="W4" t="s">
-        <v>110</v>
-      </c>
-      <c r="X4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>139</v>
       </c>
       <c r="AZ4" t="s">
         <v>114</v>
       </c>
       <c r="BA4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BB4" t="s">
         <v>116</v>
@@ -1977,31 +2001,31 @@
         <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
         <v>97</v>
       </c>
       <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>141</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
         <v>143</v>
       </c>
-      <c r="H5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>144</v>
-      </c>
-      <c r="K5" t="s">
-        <v>145</v>
       </c>
       <c r="L5" t="s">
         <v>125</v>
@@ -2010,22 +2034,22 @@
         <v>125</v>
       </c>
       <c r="N5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" t="s">
         <v>146</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" t="s">
         <v>147</v>
-      </c>
-      <c r="P5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" t="s">
-        <v>148</v>
       </c>
       <c r="T5" t="s">
         <v>110</v>
@@ -2225,28 +2249,28 @@
         <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>97</v>
       </c>
       <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
         <v>150</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>149</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
         <v>151</v>
-      </c>
-      <c r="H6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>152</v>
       </c>
       <c r="K6" t="s">
         <v>103</v>
@@ -2258,19 +2282,19 @@
         <v>125</v>
       </c>
       <c r="N6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" t="s">
         <v>153</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>154</v>
-      </c>
-      <c r="P6" t="s">
-        <v>155</v>
       </c>
       <c r="Q6" t="s">
         <v>103</v>
       </c>
       <c r="R6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S6" t="s">
         <v>110</v>
@@ -2321,13 +2345,13 @@
         <v>110</v>
       </c>
       <c r="AI6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>156</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>157</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>158</v>
       </c>
       <c r="AL6" t="s">
         <v>110</v>
@@ -2372,10 +2396,10 @@
         <v>114</v>
       </c>
       <c r="AZ6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BA6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BB6" t="s">
         <v>116</v>
@@ -2473,37 +2497,37 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
       </c>
       <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" t="s">
         <v>161</v>
       </c>
-      <c r="F7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>162</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
         <v>163</v>
       </c>
-      <c r="I7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>164</v>
-      </c>
       <c r="K7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
         <v>100</v>
@@ -2515,7 +2539,7 @@
         <v>110</v>
       </c>
       <c r="Q7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R7" t="s">
         <v>110</v>
@@ -2721,28 +2745,28 @@
         <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>
       </c>
       <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
         <v>166</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>165</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
         <v>167</v>
-      </c>
-      <c r="H8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>168</v>
       </c>
       <c r="K8" t="s">
         <v>125</v>
@@ -2754,7 +2778,7 @@
         <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O8" t="s">
         <v>109</v>
@@ -2763,7 +2787,7 @@
         <v>110</v>
       </c>
       <c r="Q8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R8" t="s">
         <v>110</v>
@@ -2969,31 +2993,31 @@
         <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
       </c>
       <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="s">
         <v>171</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>170</v>
       </c>
-      <c r="G9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" t="s">
-        <v>171</v>
-      </c>
       <c r="I9" t="s">
         <v>100</v>
       </c>
       <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
         <v>144</v>
-      </c>
-      <c r="K9" t="s">
-        <v>145</v>
       </c>
       <c r="L9" t="s">
         <v>125</v>
@@ -3002,22 +3026,22 @@
         <v>125</v>
       </c>
       <c r="N9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" t="s">
         <v>173</v>
       </c>
-      <c r="O9" t="s">
-        <v>174</v>
-      </c>
       <c r="P9" t="s">
         <v>110</v>
       </c>
       <c r="Q9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R9" t="s">
         <v>110</v>
       </c>
       <c r="S9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T9" t="s">
         <v>110</v>
@@ -3217,28 +3241,28 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>97</v>
       </c>
       <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
         <v>176</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>175</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
         <v>177</v>
-      </c>
-      <c r="H10" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>178</v>
       </c>
       <c r="K10" t="s">
         <v>103</v>
@@ -3250,19 +3274,19 @@
         <v>125</v>
       </c>
       <c r="N10" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" t="s">
         <v>179</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>180</v>
-      </c>
-      <c r="P10" t="s">
-        <v>181</v>
       </c>
       <c r="Q10" t="s">
         <v>107</v>
       </c>
       <c r="R10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S10" t="s">
         <v>110</v>
@@ -3274,52 +3298,52 @@
         <v>110</v>
       </c>
       <c r="V10" t="s">
+        <v>181</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI10" t="s">
         <v>182</v>
-      </c>
-      <c r="W10" t="s">
-        <v>110</v>
-      </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>183</v>
       </c>
       <c r="AJ10" t="s">
         <v>109</v>
       </c>
       <c r="AK10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL10" t="s">
         <v>110</v>
@@ -3364,7 +3388,7 @@
         <v>115</v>
       </c>
       <c r="AZ10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BA10" t="s">
         <v>116</v>
@@ -3462,31 +3486,31 @@
         <v>94</v>
       </c>
       <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
         <v>185</v>
-      </c>
-      <c r="C11" t="s">
-        <v>186</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
       </c>
       <c r="E11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" t="s">
         <v>187</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>186</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
         <v>188</v>
-      </c>
-      <c r="H11" t="s">
-        <v>187</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>189</v>
       </c>
       <c r="K11" t="s">
         <v>107</v>
@@ -3498,118 +3522,118 @@
         <v>107</v>
       </c>
       <c r="N11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" t="s">
         <v>190</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" t="s">
-        <v>192</v>
       </c>
       <c r="Q11" t="s">
         <v>107</v>
       </c>
       <c r="R11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" t="s">
         <v>193</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>194</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" t="s">
+        <v>110</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI11" t="s">
         <v>195</v>
       </c>
-      <c r="U11" t="s">
-        <v>110</v>
-      </c>
-      <c r="V11" t="s">
-        <v>110</v>
-      </c>
-      <c r="W11" t="s">
-        <v>110</v>
-      </c>
-      <c r="X11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>196</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>197</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>198</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY11" t="s">
         <v>199</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>200</v>
       </c>
       <c r="AZ11" t="s">
         <v>115</v>
@@ -3710,31 +3734,31 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
         <v>97</v>
       </c>
       <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" t="s">
         <v>202</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>201</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
         <v>203</v>
-      </c>
-      <c r="H12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" t="s">
-        <v>204</v>
       </c>
       <c r="K12" t="s">
         <v>102</v>
@@ -3746,19 +3770,19 @@
         <v>107</v>
       </c>
       <c r="N12" t="s">
+        <v>204</v>
+      </c>
+      <c r="O12" t="s">
         <v>205</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>206</v>
-      </c>
-      <c r="P12" t="s">
-        <v>207</v>
       </c>
       <c r="Q12" t="s">
         <v>125</v>
       </c>
       <c r="R12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S12" t="s">
         <v>110</v>
@@ -3770,7 +3794,7 @@
         <v>110</v>
       </c>
       <c r="V12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W12" t="s">
         <v>110</v>
@@ -3809,7 +3833,7 @@
         <v>110</v>
       </c>
       <c r="AI12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AJ12" t="s">
         <v>110</v>
@@ -3857,7 +3881,7 @@
         <v>110</v>
       </c>
       <c r="AY12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AZ12" t="s">
         <v>116</v>
@@ -3958,31 +3982,31 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
       </c>
       <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" t="s">
         <v>211</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>210</v>
       </c>
-      <c r="G13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" t="s">
-        <v>211</v>
-      </c>
       <c r="I13" t="s">
         <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
         <v>102</v>
@@ -3994,10 +4018,10 @@
         <v>102</v>
       </c>
       <c r="N13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O13" t="s">
         <v>213</v>
-      </c>
-      <c r="O13" t="s">
-        <v>214</v>
       </c>
       <c r="P13" t="s">
         <v>110</v>
@@ -4006,20 +4030,20 @@
         <v>103</v>
       </c>
       <c r="R13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S13" t="s">
         <v>215</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>183</v>
+      </c>
+      <c r="U13" t="s">
         <v>216</v>
       </c>
-      <c r="T13" t="s">
-        <v>184</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>217</v>
       </c>
-      <c r="V13" t="s">
-        <v>218</v>
-      </c>
       <c r="W13" t="s">
         <v>110</v>
       </c>
@@ -4105,13 +4129,13 @@
         <v>110</v>
       </c>
       <c r="AY13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AZ13" t="s">
         <v>115</v>
       </c>
       <c r="BA13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BB13" t="s">
         <v>116</v>
@@ -4206,31 +4230,31 @@
         <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
         <v>97</v>
       </c>
       <c r="E14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" t="s">
         <v>221</v>
       </c>
-      <c r="F14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>222</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
         <v>223</v>
-      </c>
-      <c r="I14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" t="s">
-        <v>224</v>
       </c>
       <c r="K14" t="s">
         <v>125</v>
@@ -4242,28 +4266,28 @@
         <v>103</v>
       </c>
       <c r="N14" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" t="s">
         <v>225</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>226</v>
-      </c>
-      <c r="P14" t="s">
-        <v>227</v>
       </c>
       <c r="Q14" t="s">
         <v>107</v>
       </c>
       <c r="R14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T14" t="s">
+        <v>227</v>
+      </c>
+      <c r="U14" t="s">
         <v>228</v>
-      </c>
-      <c r="U14" t="s">
-        <v>229</v>
       </c>
       <c r="V14" t="s">
         <v>110</v>
@@ -4308,13 +4332,13 @@
         <v>109</v>
       </c>
       <c r="AJ14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AK14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AL14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM14" t="s">
         <v>110</v>
@@ -4356,7 +4380,7 @@
         <v>114</v>
       </c>
       <c r="AZ14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BA14" t="s">
         <v>116</v>
@@ -4454,31 +4478,31 @@
         <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
         <v>97</v>
       </c>
       <c r="E15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" t="s">
         <v>232</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>231</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
         <v>233</v>
-      </c>
-      <c r="H15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" t="s">
-        <v>234</v>
       </c>
       <c r="K15" t="s">
         <v>102</v>
@@ -4490,32 +4514,32 @@
         <v>102</v>
       </c>
       <c r="N15" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" t="s">
         <v>235</v>
       </c>
-      <c r="O15" t="s">
-        <v>236</v>
-      </c>
       <c r="P15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q15" t="s">
         <v>102</v>
       </c>
       <c r="R15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U15" t="s">
+        <v>136</v>
+      </c>
+      <c r="V15" t="s">
         <v>137</v>
       </c>
-      <c r="V15" t="s">
-        <v>138</v>
-      </c>
       <c r="W15" t="s">
         <v>110</v>
       </c>
@@ -4553,13 +4577,13 @@
         <v>110</v>
       </c>
       <c r="AI15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL15" t="s">
         <v>110</v>
@@ -4601,16 +4625,16 @@
         <v>110</v>
       </c>
       <c r="AY15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB15" t="s">
         <v>237</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>238</v>
       </c>
       <c r="BC15" t="s">
         <v>117</v>
@@ -4702,31 +4726,31 @@
         <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
         <v>97</v>
       </c>
       <c r="E16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" t="s">
         <v>240</v>
       </c>
-      <c r="F16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>241</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
         <v>242</v>
-      </c>
-      <c r="I16" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" t="s">
-        <v>243</v>
       </c>
       <c r="K16" t="s">
         <v>107</v>
@@ -4738,79 +4762,79 @@
         <v>125</v>
       </c>
       <c r="N16" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" t="s">
         <v>244</v>
-      </c>
-      <c r="O16" t="s">
-        <v>193</v>
-      </c>
-      <c r="P16" t="s">
-        <v>245</v>
       </c>
       <c r="Q16" t="s">
         <v>102</v>
       </c>
       <c r="R16" t="s">
+        <v>245</v>
+      </c>
+      <c r="S16" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" t="s">
+        <v>192</v>
+      </c>
+      <c r="W16" t="s">
+        <v>110</v>
+      </c>
+      <c r="X16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI16" t="s">
         <v>246</v>
       </c>
-      <c r="S16" t="s">
-        <v>110</v>
-      </c>
-      <c r="T16" t="s">
-        <v>110</v>
-      </c>
-      <c r="U16" t="s">
-        <v>110</v>
-      </c>
-      <c r="V16" t="s">
-        <v>193</v>
-      </c>
-      <c r="W16" t="s">
-        <v>110</v>
-      </c>
-      <c r="X16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK16" t="s">
         <v>247</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>248</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>249</v>
       </c>
       <c r="AM16" t="s">
         <v>110</v>
@@ -4852,13 +4876,13 @@
         <v>114</v>
       </c>
       <c r="AZ16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BA16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BB16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BC16" t="s">
         <v>117</v>
@@ -4950,31 +4974,31 @@
         <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
       </c>
       <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" t="s">
         <v>251</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>250</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
         <v>252</v>
-      </c>
-      <c r="H17" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" t="s">
-        <v>253</v>
       </c>
       <c r="K17" t="s">
         <v>107</v>
@@ -4986,79 +5010,79 @@
         <v>107</v>
       </c>
       <c r="N17" t="s">
+        <v>253</v>
+      </c>
+      <c r="O17" t="s">
         <v>254</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>255</v>
-      </c>
-      <c r="P17" t="s">
-        <v>256</v>
       </c>
       <c r="Q17" t="s">
         <v>102</v>
       </c>
       <c r="R17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S17" t="s">
+        <v>256</v>
+      </c>
+      <c r="T17" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" t="s">
+        <v>195</v>
+      </c>
+      <c r="V17" t="s">
+        <v>110</v>
+      </c>
+      <c r="W17" t="s">
+        <v>110</v>
+      </c>
+      <c r="X17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>257</v>
       </c>
-      <c r="T17" t="s">
-        <v>110</v>
-      </c>
-      <c r="U17" t="s">
-        <v>196</v>
-      </c>
-      <c r="V17" t="s">
-        <v>110</v>
-      </c>
-      <c r="W17" t="s">
-        <v>110</v>
-      </c>
-      <c r="X17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>258</v>
-      </c>
       <c r="AK17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s">
         <v>110</v>
@@ -5097,16 +5121,16 @@
         <v>110</v>
       </c>
       <c r="AY17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AZ17" t="s">
         <v>115</v>
       </c>
       <c r="BA17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BB17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BC17" t="s">
         <v>117</v>
@@ -5198,31 +5222,31 @@
         <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
       </c>
       <c r="E18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" t="s">
         <v>260</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>259</v>
       </c>
-      <c r="G18" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" t="s">
-        <v>260</v>
-      </c>
       <c r="I18" t="s">
         <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
         <v>102</v>
@@ -5234,10 +5258,10 @@
         <v>102</v>
       </c>
       <c r="N18" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" t="s">
         <v>262</v>
-      </c>
-      <c r="O18" t="s">
-        <v>263</v>
       </c>
       <c r="P18" t="s">
         <v>110</v>
@@ -5246,20 +5270,20 @@
         <v>107</v>
       </c>
       <c r="R18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S18" t="s">
         <v>109</v>
       </c>
       <c r="T18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U18" t="s">
+        <v>264</v>
+      </c>
+      <c r="V18" t="s">
         <v>265</v>
       </c>
-      <c r="V18" t="s">
-        <v>266</v>
-      </c>
       <c r="W18" t="s">
         <v>110</v>
       </c>
@@ -5345,10 +5369,10 @@
         <v>110</v>
       </c>
       <c r="AY18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AZ18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BA18" t="s">
         <v>116</v>
@@ -5446,31 +5470,31 @@
         <v>94</v>
       </c>
       <c r="B19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
         <v>267</v>
-      </c>
-      <c r="C19" t="s">
-        <v>268</v>
       </c>
       <c r="D19" t="s">
         <v>97</v>
       </c>
       <c r="E19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" t="s">
         <v>269</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>268</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" t="s">
         <v>270</v>
-      </c>
-      <c r="H19" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" t="s">
-        <v>271</v>
       </c>
       <c r="K19" t="s">
         <v>103</v>
@@ -5482,25 +5506,25 @@
         <v>103</v>
       </c>
       <c r="N19" t="s">
+        <v>271</v>
+      </c>
+      <c r="O19" t="s">
         <v>272</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>273</v>
-      </c>
-      <c r="P19" t="s">
-        <v>274</v>
       </c>
       <c r="Q19" t="s">
         <v>103</v>
       </c>
       <c r="R19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S19" t="s">
         <v>109</v>
       </c>
       <c r="T19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U19" t="s">
         <v>109</v>
@@ -5545,16 +5569,16 @@
         <v>110</v>
       </c>
       <c r="AI19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AJ19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s">
         <v>110</v>
@@ -5593,13 +5617,13 @@
         <v>110</v>
       </c>
       <c r="AY19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AZ19" t="s">
         <v>115</v>
       </c>
       <c r="BA19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BB19" t="s">
         <v>116</v>
@@ -5694,31 +5718,31 @@
         <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
         <v>97</v>
       </c>
       <c r="E20" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" t="s">
         <v>278</v>
       </c>
-      <c r="F20" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>279</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
         <v>280</v>
-      </c>
-      <c r="I20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" t="s">
-        <v>281</v>
       </c>
       <c r="K20" t="s">
         <v>102</v>
@@ -5730,19 +5754,19 @@
         <v>102</v>
       </c>
       <c r="N20" t="s">
+        <v>281</v>
+      </c>
+      <c r="O20" t="s">
         <v>282</v>
       </c>
-      <c r="O20" t="s">
-        <v>283</v>
-      </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q20" t="s">
         <v>103</v>
       </c>
       <c r="R20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S20" t="s">
         <v>109</v>
@@ -5793,10 +5817,10 @@
         <v>110</v>
       </c>
       <c r="AI20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AJ20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AK20" t="s">
         <v>110</v>
@@ -5841,13 +5865,13 @@
         <v>110</v>
       </c>
       <c r="AY20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AZ20" t="s">
         <v>115</v>
       </c>
       <c r="BA20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BB20" t="s">
         <v>116</v>
@@ -5942,31 +5966,31 @@
         <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
         <v>97</v>
       </c>
       <c r="E21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" t="s">
         <v>287</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>286</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
         <v>288</v>
-      </c>
-      <c r="H21" t="s">
-        <v>287</v>
-      </c>
-      <c r="I21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" t="s">
-        <v>289</v>
       </c>
       <c r="K21" t="s">
         <v>103</v>
@@ -5978,210 +6002,706 @@
         <v>103</v>
       </c>
       <c r="N21" t="s">
+        <v>289</v>
+      </c>
+      <c r="O21" t="s">
         <v>290</v>
       </c>
-      <c r="O21" t="s">
-        <v>291</v>
-      </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q21" t="s">
         <v>102</v>
       </c>
       <c r="R21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S21" t="s">
         <v>109</v>
       </c>
       <c r="T21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
       </c>
       <c r="V21" t="s">
+        <v>291</v>
+      </c>
+      <c r="W21" t="s">
+        <v>110</v>
+      </c>
+      <c r="X21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>218</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
         <v>292</v>
       </c>
-      <c r="W21" t="s">
-        <v>110</v>
-      </c>
-      <c r="X21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>219</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>117</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>100</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>100</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="CD21" t="s">
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" t="s">
+        <v>294</v>
+      </c>
+      <c r="H22" t="s">
+        <v>293</v>
+      </c>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>295</v>
+      </c>
+      <c r="K22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>144</v>
+      </c>
+      <c r="R22" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" t="s">
+        <v>110</v>
+      </c>
+      <c r="T22" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" t="s">
+        <v>110</v>
+      </c>
+      <c r="W22" t="s">
+        <v>110</v>
+      </c>
+      <c r="X22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>100</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>100</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R23" t="s">
+        <v>110</v>
+      </c>
+      <c r="S23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T23" t="s">
+        <v>110</v>
+      </c>
+      <c r="U23" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" t="s">
+        <v>110</v>
+      </c>
+      <c r="W23" t="s">
+        <v>110</v>
+      </c>
+      <c r="X23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>117</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>100</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>100</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD23" t="s">
         <v>100</v>
       </c>
     </row>
